--- a/BDD.xlsx
+++ b/BDD.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20341"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CE5F263-7FA0-4781-B8C6-ABDDCA933FA9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C92CF5FF-CA5E-4224-B1DD-4D73C7BB3BB8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="46">
   <si>
     <t>id_horario</t>
   </si>
@@ -782,7 +782,7 @@
   <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F30" sqref="F30"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -857,6 +857,23 @@
         <v>29</v>
       </c>
     </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D9" s="5"/>
+    </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="G13" s="5"/>
     </row>

--- a/BDD.xlsx
+++ b/BDD.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20341"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C92CF5FF-CA5E-4224-B1DD-4D73C7BB3BB8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15BF9FC4-332C-4A19-BA94-71AF4F566E35}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="horarios" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="52">
   <si>
     <t>id_horario</t>
   </si>
@@ -161,6 +161,24 @@
   </si>
   <si>
     <t>LES10</t>
+  </si>
+  <si>
+    <t>Rafael Rubio</t>
+  </si>
+  <si>
+    <t>Feliper Savater</t>
+  </si>
+  <si>
+    <t>Rodrigo Reyes</t>
+  </si>
+  <si>
+    <t>RR6</t>
+  </si>
+  <si>
+    <t>FS7</t>
+  </si>
+  <si>
+    <t>RR7</t>
   </si>
 </sst>
 </file>
@@ -204,7 +222,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -217,6 +235,9 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -610,7 +631,7 @@
   <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="A1:B11"/>
+      <selection activeCell="A9" sqref="A9:A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -713,10 +734,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D05E097E-3B5B-4F91-859B-2B7139D5E547}">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="A1:B6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7:A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -772,6 +793,30 @@
         <v>26</v>
       </c>
     </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B7" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B8" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B9" t="s">
+        <v>48</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -779,10 +824,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{006A0B43-6E34-4D87-A39B-56313E75DDEE}">
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:G16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -871,11 +916,107 @@
         <v>27</v>
       </c>
     </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="D9" s="5"/>
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>27</v>
+      </c>
       <c r="G13" s="5"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D16" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
